--- a/design/01062021 TxCRCP-ME Analysis Result Sheet.xlsx
+++ b/design/01062021 TxCRCP-ME Analysis Result Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\STORE\nvtngan\project\github\txDoT\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B947A2-9558-403E-BD52-749FA8D25E0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA0DF5DC-F88E-40BE-AAFE-CE2E26772A3B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12108" yWindow="1176" windowWidth="17280" windowHeight="11532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,29 +18,29 @@
   <definedNames>
     <definedName name="AnalysisPunchouts">Sheet1!$S$7</definedName>
     <definedName name="AnalysisSlabThickness">Sheet1!$S$6</definedName>
-    <definedName name="BaseThickness">Sheet1!$C$32</definedName>
-    <definedName name="BaseType">Sheet1!$C$31</definedName>
-    <definedName name="CompositeK">Sheet1!$C$35</definedName>
+    <definedName name="BaseThickness">Sheet1!$C$34</definedName>
+    <definedName name="BaseType">Sheet1!$C$33</definedName>
+    <definedName name="CompositeK">Sheet1!$C$37</definedName>
     <definedName name="County">Sheet1!$C$7</definedName>
     <definedName name="CSJ">Sheet1!$C$9</definedName>
-    <definedName name="DesignLife">Sheet1!$C$16</definedName>
+    <definedName name="DesignLife">Sheet1!$C$18</definedName>
     <definedName name="District">Sheet1!$C$6</definedName>
-    <definedName name="ElasticModulue">Sheet1!$C$40</definedName>
+    <definedName name="ElasticModulue">Sheet1!$C$42</definedName>
     <definedName name="Highway">Sheet1!$C$8</definedName>
-    <definedName name="LanesOneDirection">Sheet1!$C$18</definedName>
-    <definedName name="ModulusBase">Sheet1!$C$33</definedName>
-    <definedName name="ModulusOfRupture">Sheet1!$C$39</definedName>
-    <definedName name="PlasticityIndex">Sheet1!$C$25</definedName>
+    <definedName name="LanesOneDirection">Sheet1!$C$20</definedName>
+    <definedName name="ModulusBase">Sheet1!$C$35</definedName>
+    <definedName name="ModulusOfRupture">Sheet1!$C$41</definedName>
+    <definedName name="PlasticityIndex">Sheet1!$C$27</definedName>
     <definedName name="ProjectScope">Sheet1!$C$10</definedName>
-    <definedName name="PunchoutsPerMile">Sheet1!$C$17</definedName>
+    <definedName name="PunchoutsPerMile">Sheet1!$C$19</definedName>
     <definedName name="SlabThickness">Sheet1!$S$6</definedName>
-    <definedName name="SoilClassificationSystem">Sheet1!$C$23</definedName>
-    <definedName name="SoilSub">Sheet1!$C$24</definedName>
+    <definedName name="SoilClassificationSystem">Sheet1!$C$25</definedName>
+    <definedName name="SoilSub">Sheet1!$C$26</definedName>
     <definedName name="StationBegin">Sheet1!$C$11</definedName>
     <definedName name="StationEnd">Sheet1!$C$12</definedName>
-    <definedName name="SubbaseThickness">Sheet1!$C$27</definedName>
-    <definedName name="SubbaseType">Sheet1!$C$26</definedName>
-    <definedName name="TrafficOneDirection">Sheet1!$C$19</definedName>
+    <definedName name="SubbaseThickness">Sheet1!$C$29</definedName>
+    <definedName name="SubbaseType">Sheet1!$C$28</definedName>
+    <definedName name="TrafficOneDirection">Sheet1!$C$21</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="62">
   <si>
     <t xml:space="preserve"> INPUT DATA</t>
   </si>
@@ -245,35 +245,20 @@
     <t xml:space="preserve"> Design Slab Thickness</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">The minimum thickness for CRCP is 7 in., and the maximum thickness is 13 in.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Use 13 in. for slab thicknesses greater than 13 in.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Districts should use 13-in. slab as a design slab thickness. Districts wanting to use thicker pavements should submit design greater than 13-in. to the district engineer for approval along with their justification for doing so.</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve"> Plasticity Index (PI)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Comment</t>
+  </si>
+  <si>
+    <t>The minimum thickness for CRCP is 7 in., and the maximum thickness is 13 in.
+When the design slab thickness from this program is greater than 13-in, use 13-in slab. If a thickness greater than 13-in is desired, a request with justifications needs to be submitted to the District Engineer for approval.</t>
+  </si>
+  <si>
+    <t>Subgrade</t>
   </si>
 </sst>
 </file>
@@ -283,7 +268,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -347,14 +332,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -514,7 +491,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -611,15 +588,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -670,20 +638,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -999,10 +973,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X42"/>
+  <dimension ref="A1:X44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="K23" sqref="I23:K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1025,7 +999,7 @@
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
       <c r="E1" s="23"/>
-      <c r="F1" s="48"/>
+      <c r="F1" s="45"/>
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
       <c r="I1" s="14"/>
@@ -1047,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="61"/>
-      <c r="D2" s="60"/>
+      <c r="D2" s="57"/>
       <c r="E2" s="10"/>
       <c r="F2" s="4"/>
       <c r="G2" s="61" t="s">
@@ -1069,72 +1043,72 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="17"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="58"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="55"/>
       <c r="E3" s="10"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="58"/>
+      <c r="S3" s="58"/>
       <c r="T3" s="18"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="17"/>
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="56"/>
       <c r="E4" s="10"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="65" t="s">
+      <c r="G4" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
-      <c r="M4" s="65"/>
-      <c r="N4" s="65"/>
-      <c r="O4" s="65"/>
-      <c r="P4" s="65"/>
-      <c r="Q4" s="65"/>
-      <c r="R4" s="65"/>
-      <c r="S4" s="65"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="60"/>
+      <c r="S4" s="60"/>
       <c r="T4" s="18"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="58"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="55"/>
       <c r="E5" s="10"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="62"/>
-      <c r="N5" s="62"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="62"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="58"/>
+      <c r="P5" s="58"/>
+      <c r="Q5" s="58"/>
+      <c r="R5" s="58"/>
+      <c r="S5" s="58"/>
       <c r="T5" s="18"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
@@ -1148,21 +1122,21 @@
       <c r="D6" s="5"/>
       <c r="E6" s="10"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="54" t="s">
+      <c r="G6" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
-      <c r="S6" s="55">
+      <c r="S6" s="52">
         <v>13</v>
       </c>
       <c r="T6" s="18"/>
@@ -1178,21 +1152,21 @@
       <c r="D7" s="5"/>
       <c r="E7" s="10"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="56" t="s">
+      <c r="G7" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
-      <c r="S7" s="57">
+      <c r="S7" s="54">
         <v>8.8401751229188417</v>
       </c>
       <c r="T7" s="18"/>
@@ -1234,21 +1208,21 @@
       <c r="D9" s="5"/>
       <c r="E9" s="10"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="65" t="s">
+      <c r="G9" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
-      <c r="L9" s="65"/>
-      <c r="M9" s="65"/>
-      <c r="N9" s="65"/>
-      <c r="O9" s="65"/>
-      <c r="P9" s="65"/>
-      <c r="Q9" s="65"/>
-      <c r="R9" s="65"/>
-      <c r="S9" s="65"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="60"/>
+      <c r="O9" s="60"/>
+      <c r="P9" s="60"/>
+      <c r="Q9" s="60"/>
+      <c r="R9" s="60"/>
+      <c r="S9" s="60"/>
       <c r="T9" s="18"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
@@ -1262,19 +1236,19 @@
       <c r="D10" s="5"/>
       <c r="E10" s="10"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="46"/>
-      <c r="N10" s="46"/>
-      <c r="O10" s="46"/>
-      <c r="P10" s="46"/>
-      <c r="Q10" s="46"/>
-      <c r="R10" s="46"/>
-      <c r="S10" s="46"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="43"/>
+      <c r="O10" s="43"/>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="43"/>
+      <c r="R10" s="43"/>
+      <c r="S10" s="43"/>
       <c r="T10" s="18"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
@@ -1316,11 +1290,11 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="30"/>
-      <c r="I12" s="43" t="s">
+      <c r="I12" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
       <c r="L12" s="30" t="s">
         <v>34</v>
       </c>
@@ -1337,9 +1311,11 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="17"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
+      <c r="B13" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
       <c r="E13" s="10"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -1347,7 +1323,7 @@
       <c r="I13" s="30"/>
       <c r="J13" s="30"/>
       <c r="K13" s="30"/>
-      <c r="L13" s="27"/>
+      <c r="L13" s="30"/>
       <c r="M13" s="27"/>
       <c r="N13" s="27"/>
       <c r="O13" s="30"/>
@@ -1359,11 +1335,11 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
-      <c r="B14" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="45"/>
-      <c r="D14" s="59"/>
+      <c r="B14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
       <c r="E14" s="10"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -1371,7 +1347,7 @@
       <c r="I14" s="30"/>
       <c r="J14" s="30"/>
       <c r="K14" s="30"/>
-      <c r="L14" s="27"/>
+      <c r="L14" s="30"/>
       <c r="M14" s="27"/>
       <c r="N14" s="27"/>
       <c r="O14" s="30"/>
@@ -1383,9 +1359,9 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="17"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="58"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
       <c r="E15" s="10"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -1405,13 +1381,11 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="17"/>
-      <c r="B16" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="5">
-        <v>30</v>
-      </c>
-      <c r="D16" s="5"/>
+      <c r="B16" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="42"/>
+      <c r="D16" s="56"/>
       <c r="E16" s="10"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -1431,13 +1405,9 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="17"/>
-      <c r="B17" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="5">
-        <v>10</v>
-      </c>
-      <c r="D17" s="5"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="55"/>
       <c r="E17" s="10"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -1464,12 +1434,12 @@
     <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="17"/>
       <c r="B18" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="7">
-        <v>4</v>
-      </c>
-      <c r="D18" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="C18" s="5">
+        <v>30</v>
+      </c>
+      <c r="D18" s="5"/>
       <c r="E18" s="10"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -1490,21 +1460,21 @@
     <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="17"/>
       <c r="B19" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="7">
-        <v>106.82599999999999</v>
-      </c>
-      <c r="D19" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="C19" s="5">
+        <v>10</v>
+      </c>
+      <c r="D19" s="5"/>
       <c r="E19" s="10"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="31"/>
-      <c r="I19" s="43" t="s">
+      <c r="I19" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
       <c r="L19" s="31" t="s">
         <v>39</v>
       </c>
@@ -1521,9 +1491,13 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="17"/>
-      <c r="B20" s="62"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="58"/>
+      <c r="B20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="7">
+        <v>4</v>
+      </c>
+      <c r="D20" s="7"/>
       <c r="E20" s="10"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
@@ -1547,11 +1521,13 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="17"/>
-      <c r="B21" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="45"/>
-      <c r="D21" s="59"/>
+      <c r="B21" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="7">
+        <v>106.82599999999999</v>
+      </c>
+      <c r="D21" s="7"/>
       <c r="E21" s="10"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -1575,9 +1551,9 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="17"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="58"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="55"/>
       <c r="E22" s="10"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -1597,22 +1573,20 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" s="17"/>
-      <c r="B23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="5"/>
+      <c r="B23" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="42"/>
+      <c r="D23" s="56"/>
       <c r="E23" s="10"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="30"/>
-      <c r="I23" s="43" t="s">
+      <c r="I23" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="J23" s="42"/>
-      <c r="K23" s="47"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="27"/>
       <c r="L23" s="27" t="s">
         <v>39</v>
       </c>
@@ -1629,18 +1603,16 @@
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" s="17"/>
-      <c r="B24" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="5"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="55"/>
       <c r="E24" s="10"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
+      <c r="I24" s="36" t="s">
+        <v>61</v>
+      </c>
       <c r="J24" s="30"/>
       <c r="K24" s="30"/>
       <c r="L24" s="30" t="s">
@@ -1660,15 +1632,15 @@
     <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" s="17"/>
       <c r="B25" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" s="5">
-        <v>35</v>
+        <v>13</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="D25" s="5"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
       <c r="H25" s="30"/>
       <c r="I25" s="30"/>
       <c r="J25" s="30"/>
@@ -1686,15 +1658,15 @@
     <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" s="17"/>
       <c r="B26" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
       <c r="H26" s="30"/>
       <c r="I26" s="30"/>
       <c r="J26" s="30"/>
@@ -1712,15 +1684,15 @@
     <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" s="17"/>
       <c r="B27" s="4" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C27" s="5">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D27" s="5"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
       <c r="H27" s="37"/>
       <c r="I27" s="37"/>
       <c r="J27" s="38"/>
@@ -1737,18 +1709,22 @@
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" s="17"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="6"/>
+      <c r="B28" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="D28" s="6"/>
       <c r="E28" s="12"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="38"/>
-      <c r="I28" s="43" t="s">
+      <c r="I28" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="J28" s="47"/>
-      <c r="K28" s="47"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="44"/>
       <c r="L28" s="39" t="s">
         <v>39</v>
       </c>
@@ -1765,11 +1741,13 @@
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" s="17"/>
-      <c r="B29" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" s="45"/>
-      <c r="D29" s="59"/>
+      <c r="B29" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="5">
+        <v>12</v>
+      </c>
+      <c r="D29" s="5"/>
       <c r="E29" s="12"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -1815,13 +1793,11 @@
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" s="17"/>
-      <c r="B31" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31" s="5"/>
+      <c r="B31" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="42"/>
+      <c r="D31" s="56"/>
       <c r="E31" s="12"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -1841,13 +1817,9 @@
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" s="17"/>
-      <c r="B32" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32" s="5">
-        <v>6</v>
-      </c>
-      <c r="D32" s="5"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
       <c r="E32" s="12"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -1868,68 +1840,68 @@
     <row r="33" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A33" s="17"/>
       <c r="B33" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C33" s="5">
-        <v>500</v>
+        <v>17</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="12"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="41"/>
-      <c r="J33" s="41"/>
-      <c r="K33" s="41"/>
-      <c r="L33" s="41"/>
-      <c r="M33" s="41"/>
-      <c r="N33" s="41"/>
-      <c r="O33" s="41"/>
-      <c r="P33" s="41"/>
-      <c r="Q33" s="41"/>
-      <c r="R33" s="41"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="38"/>
+      <c r="N33" s="38"/>
+      <c r="O33" s="38"/>
+      <c r="P33" s="38"/>
+      <c r="Q33" s="38"/>
+      <c r="R33" s="38"/>
       <c r="S33" s="2"/>
       <c r="T33" s="18"/>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A34" s="17"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
+      <c r="B34" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="5">
+        <v>6</v>
+      </c>
+      <c r="D34" s="5"/>
       <c r="E34" s="12"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="25"/>
-      <c r="L34" s="25"/>
-      <c r="M34" s="25"/>
-      <c r="N34" s="25"/>
-      <c r="O34" s="25"/>
-      <c r="P34" s="25"/>
-      <c r="Q34" s="25"/>
-      <c r="R34" s="25"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="64"/>
+      <c r="J34" s="64"/>
+      <c r="K34" s="64"/>
+      <c r="L34" s="64"/>
+      <c r="M34" s="64"/>
+      <c r="N34" s="64"/>
+      <c r="O34" s="64"/>
+      <c r="P34" s="64"/>
+      <c r="Q34" s="64"/>
+      <c r="R34" s="64"/>
       <c r="S34" s="2"/>
       <c r="T34" s="18"/>
     </row>
-    <row r="35" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A35" s="17"/>
       <c r="B35" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C35" s="8">
-        <v>457</v>
-      </c>
-      <c r="D35" s="8"/>
+        <v>20</v>
+      </c>
+      <c r="C35" s="5">
+        <v>500</v>
+      </c>
+      <c r="D35" s="5"/>
       <c r="E35" s="12"/>
       <c r="F35" s="2"/>
-      <c r="G35" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="H35" s="64" t="s">
-        <v>57</v>
-      </c>
+      <c r="G35" s="2"/>
+      <c r="H35" s="63"/>
       <c r="I35" s="64"/>
       <c r="J35" s="64"/>
       <c r="K35" s="64"/>
@@ -1940,7 +1912,7 @@
       <c r="P35" s="64"/>
       <c r="Q35" s="64"/>
       <c r="R35" s="64"/>
-      <c r="S35" s="64"/>
+      <c r="S35" s="2"/>
       <c r="T35" s="18"/>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.3">
@@ -1950,202 +1922,254 @@
       <c r="D36" s="6"/>
       <c r="E36" s="12"/>
       <c r="F36" s="2"/>
-      <c r="G36" s="52"/>
-      <c r="H36" s="64"/>
-      <c r="I36" s="64"/>
-      <c r="J36" s="64"/>
-      <c r="K36" s="64"/>
-      <c r="L36" s="64"/>
-      <c r="M36" s="64"/>
-      <c r="N36" s="64"/>
-      <c r="O36" s="64"/>
-      <c r="P36" s="64"/>
-      <c r="Q36" s="64"/>
-      <c r="R36" s="64"/>
-      <c r="S36" s="64"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="25"/>
+      <c r="M36" s="25"/>
+      <c r="N36" s="25"/>
+      <c r="O36" s="25"/>
+      <c r="P36" s="25"/>
+      <c r="Q36" s="25"/>
+      <c r="R36" s="25"/>
+      <c r="S36" s="2"/>
       <c r="T36" s="18"/>
     </row>
     <row r="37" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="17"/>
-      <c r="B37" s="63" t="s">
-        <v>50</v>
-      </c>
-      <c r="C37" s="63"/>
-      <c r="D37" s="59"/>
+      <c r="B37" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="8">
+        <v>457</v>
+      </c>
+      <c r="D37" s="8"/>
       <c r="E37" s="12"/>
       <c r="F37" s="2"/>
-      <c r="G37" s="53" t="s">
+      <c r="G37" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="H37" s="64"/>
-      <c r="I37" s="64"/>
-      <c r="J37" s="64"/>
-      <c r="K37" s="64"/>
-      <c r="L37" s="64"/>
-      <c r="M37" s="64"/>
-      <c r="N37" s="64"/>
-      <c r="O37" s="64"/>
-      <c r="P37" s="64"/>
-      <c r="Q37" s="64"/>
-      <c r="R37" s="64"/>
-      <c r="S37" s="64"/>
+      <c r="H37" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="I37" s="62"/>
+      <c r="J37" s="62"/>
+      <c r="K37" s="62"/>
+      <c r="L37" s="62"/>
+      <c r="M37" s="62"/>
+      <c r="N37" s="62"/>
+      <c r="O37" s="62"/>
+      <c r="P37" s="62"/>
+      <c r="Q37" s="62"/>
+      <c r="R37" s="62"/>
+      <c r="S37" s="62"/>
       <c r="T37" s="18"/>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A38" s="17"/>
-      <c r="B38" s="62"/>
-      <c r="C38" s="62"/>
-      <c r="D38" s="58"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
       <c r="E38" s="12"/>
       <c r="F38" s="2"/>
-      <c r="G38" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="H38" s="64"/>
-      <c r="I38" s="64"/>
-      <c r="J38" s="64"/>
-      <c r="K38" s="64"/>
-      <c r="L38" s="64"/>
-      <c r="M38" s="64"/>
-      <c r="N38" s="64"/>
-      <c r="O38" s="64"/>
-      <c r="P38" s="64"/>
-      <c r="Q38" s="64"/>
-      <c r="R38" s="64"/>
-      <c r="S38" s="64"/>
-      <c r="T38" s="50"/>
-      <c r="U38" s="51"/>
-      <c r="V38" s="51"/>
-      <c r="W38" s="51"/>
-      <c r="X38" s="51"/>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="G38" s="49"/>
+      <c r="H38" s="62"/>
+      <c r="I38" s="62"/>
+      <c r="J38" s="62"/>
+      <c r="K38" s="62"/>
+      <c r="L38" s="62"/>
+      <c r="M38" s="62"/>
+      <c r="N38" s="62"/>
+      <c r="O38" s="62"/>
+      <c r="P38" s="62"/>
+      <c r="Q38" s="62"/>
+      <c r="R38" s="62"/>
+      <c r="S38" s="62"/>
+      <c r="T38" s="18"/>
+    </row>
+    <row r="39" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="17"/>
-      <c r="B39" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="5">
-        <v>570</v>
-      </c>
-      <c r="D39" s="5"/>
+      <c r="B39" s="59" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="59"/>
+      <c r="D39" s="56"/>
       <c r="E39" s="12"/>
       <c r="F39" s="2"/>
-      <c r="G39" s="52"/>
-      <c r="H39" s="64"/>
-      <c r="I39" s="64"/>
-      <c r="J39" s="64"/>
-      <c r="K39" s="64"/>
-      <c r="L39" s="64"/>
-      <c r="M39" s="64"/>
-      <c r="N39" s="64"/>
-      <c r="O39" s="64"/>
-      <c r="P39" s="64"/>
-      <c r="Q39" s="64"/>
-      <c r="R39" s="64"/>
-      <c r="S39" s="64"/>
-      <c r="T39" s="50"/>
-      <c r="U39" s="51"/>
-      <c r="V39" s="51"/>
-      <c r="W39" s="51"/>
-      <c r="X39" s="51"/>
+      <c r="G39" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="H39" s="62"/>
+      <c r="I39" s="62"/>
+      <c r="J39" s="62"/>
+      <c r="K39" s="62"/>
+      <c r="L39" s="62"/>
+      <c r="M39" s="62"/>
+      <c r="N39" s="62"/>
+      <c r="O39" s="62"/>
+      <c r="P39" s="62"/>
+      <c r="Q39" s="62"/>
+      <c r="R39" s="62"/>
+      <c r="S39" s="62"/>
+      <c r="T39" s="18"/>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A40" s="17"/>
-      <c r="B40" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C40" s="5">
-        <v>5</v>
-      </c>
-      <c r="D40" s="5"/>
+      <c r="B40" s="58"/>
+      <c r="C40" s="58"/>
+      <c r="D40" s="55"/>
       <c r="E40" s="12"/>
       <c r="F40" s="2"/>
-      <c r="G40" s="52"/>
-      <c r="H40" s="64"/>
-      <c r="I40" s="64"/>
-      <c r="J40" s="64"/>
-      <c r="K40" s="64"/>
-      <c r="L40" s="64"/>
-      <c r="M40" s="64"/>
-      <c r="N40" s="64"/>
-      <c r="O40" s="64"/>
-      <c r="P40" s="64"/>
-      <c r="Q40" s="64"/>
-      <c r="R40" s="64"/>
-      <c r="S40" s="64"/>
-      <c r="T40" s="50"/>
-      <c r="U40" s="51"/>
-      <c r="V40" s="51"/>
-      <c r="W40" s="51"/>
-      <c r="X40" s="51"/>
-    </row>
-    <row r="41" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G40" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="H40" s="62"/>
+      <c r="I40" s="62"/>
+      <c r="J40" s="62"/>
+      <c r="K40" s="62"/>
+      <c r="L40" s="62"/>
+      <c r="M40" s="62"/>
+      <c r="N40" s="62"/>
+      <c r="O40" s="62"/>
+      <c r="P40" s="62"/>
+      <c r="Q40" s="62"/>
+      <c r="R40" s="62"/>
+      <c r="S40" s="62"/>
+      <c r="T40" s="47"/>
+      <c r="U40" s="48"/>
+      <c r="V40" s="48"/>
+      <c r="W40" s="48"/>
+      <c r="X40" s="48"/>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A41" s="17"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
+      <c r="B41" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="5">
+        <v>570</v>
+      </c>
       <c r="D41" s="5"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="52"/>
-      <c r="H41" s="64"/>
-      <c r="I41" s="64"/>
-      <c r="J41" s="64"/>
-      <c r="K41" s="64"/>
-      <c r="L41" s="64"/>
-      <c r="M41" s="64"/>
-      <c r="N41" s="64"/>
-      <c r="O41" s="64"/>
-      <c r="P41" s="64"/>
-      <c r="Q41" s="64"/>
-      <c r="R41" s="64"/>
-      <c r="S41" s="64"/>
-      <c r="T41" s="18"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="49"/>
+      <c r="H41" s="62"/>
+      <c r="I41" s="62"/>
+      <c r="J41" s="62"/>
+      <c r="K41" s="62"/>
+      <c r="L41" s="62"/>
+      <c r="M41" s="62"/>
+      <c r="N41" s="62"/>
+      <c r="O41" s="62"/>
+      <c r="P41" s="62"/>
+      <c r="Q41" s="62"/>
+      <c r="R41" s="62"/>
+      <c r="S41" s="62"/>
+      <c r="T41" s="47"/>
+      <c r="U41" s="48"/>
+      <c r="V41" s="48"/>
+      <c r="W41" s="48"/>
+      <c r="X41" s="48"/>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A42" s="19"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="20"/>
-      <c r="L42" s="20"/>
-      <c r="M42" s="20"/>
-      <c r="N42" s="20"/>
-      <c r="O42" s="20"/>
-      <c r="P42" s="20"/>
-      <c r="Q42" s="20"/>
-      <c r="R42" s="20"/>
-      <c r="S42" s="21"/>
-      <c r="T42" s="22"/>
+      <c r="A42" s="17"/>
+      <c r="B42" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" s="5">
+        <v>5</v>
+      </c>
+      <c r="D42" s="5"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="62"/>
+      <c r="I42" s="62"/>
+      <c r="J42" s="62"/>
+      <c r="K42" s="62"/>
+      <c r="L42" s="62"/>
+      <c r="M42" s="62"/>
+      <c r="N42" s="62"/>
+      <c r="O42" s="62"/>
+      <c r="P42" s="62"/>
+      <c r="Q42" s="62"/>
+      <c r="R42" s="62"/>
+      <c r="S42" s="62"/>
+      <c r="T42" s="47"/>
+      <c r="U42" s="48"/>
+      <c r="V42" s="48"/>
+      <c r="W42" s="48"/>
+      <c r="X42" s="48"/>
+    </row>
+    <row r="43" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="17"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="49"/>
+      <c r="H43" s="62"/>
+      <c r="I43" s="62"/>
+      <c r="J43" s="62"/>
+      <c r="K43" s="62"/>
+      <c r="L43" s="62"/>
+      <c r="M43" s="62"/>
+      <c r="N43" s="62"/>
+      <c r="O43" s="62"/>
+      <c r="P43" s="62"/>
+      <c r="Q43" s="62"/>
+      <c r="R43" s="62"/>
+      <c r="S43" s="62"/>
+      <c r="T43" s="18"/>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A44" s="19"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="46"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="20"/>
+      <c r="L44" s="20"/>
+      <c r="M44" s="20"/>
+      <c r="N44" s="20"/>
+      <c r="O44" s="20"/>
+      <c r="P44" s="20"/>
+      <c r="Q44" s="20"/>
+      <c r="R44" s="20"/>
+      <c r="S44" s="21"/>
+      <c r="T44" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="H35:S41"/>
-    <mergeCell ref="G9:S9"/>
-    <mergeCell ref="G4:S4"/>
-    <mergeCell ref="G5:S5"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B5:C5"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="G2:S2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="G3:S3"/>
     <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="H37:S43"/>
+    <mergeCell ref="G9:S9"/>
+    <mergeCell ref="G4:S4"/>
+    <mergeCell ref="G5:S5"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <dataValidations xWindow="413" yWindow="673" count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="STOP!_x000a__x000a_Use button to return to Input Worksheet." sqref="C16:D19 C39:D41 C35:D35 C31:D31 C27:D27 C23:D25" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Base Thickness" error="Out of Range – Please Enter a Value between 2 and 6." prompt="STOP!_x000a__x000a_Use button to return to Input Worksheet." sqref="C32:D32" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="STOP!_x000a__x000a_Use button to return to Input Worksheet." sqref="C18:D21 C41:D43 C37:D37 C33:D33 C29:D29 C25:D27" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Base Thickness" error="Out of Range – Please Enter a Value between 2 and 6." prompt="STOP!_x000a__x000a_Use button to return to Input Worksheet." sqref="C34:D34" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>2</formula1>
       <formula2>6</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Modulus of Base Layer" error="Out of Range – Please Enter a Value between 50 and 2000." prompt="STOP!_x000a__x000a_Use button to return to Input Worksheet." sqref="C33:D33" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Modulus of Base Layer" error="Out of Range – Please Enter a Value between 50 and 2000." prompt="STOP!_x000a__x000a_Use button to return to Input Worksheet." sqref="C35:D35" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>50</formula1>
       <formula2>2000</formula2>
     </dataValidation>
